--- a/pred_ohlcv/54_21/2019-10-14 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 XRP ohlcv.xlsx
@@ -4890,7 +4890,7 @@
         <v>156837.04361237</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>154200.55941237</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>154200.55941237</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>146777.41941237</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>120744.98701237</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>137821.93951237</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>137821.93951237</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>103558.12781237</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>103558.12781237</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>103558.12781237</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>103558.12781237</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>103558.12781237</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>103558.12781237</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>113374.45811237</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>113374.45811237</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>246592.84921237</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>242729.66781237</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>401358.9779123699</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>329799.20251237</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>330065.12041237</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>469180.4876123699</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>633306.7761093298</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>535355.9368093298</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>487350.4228093298</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>393019.8138093298</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>337889.7789093297</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>355210.7030828797</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>355210.7030828797</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>351421.3125828797</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>270717.4662828797</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>202004.1492525697</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>218278.2906525697</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>194128.9577525697</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1136022.95465197</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>1149844.95375197</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1148854.23255197</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1148854.23255197</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1490583.78545197</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1940252.90988611</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1940252.90988611</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>2236436.71302791</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>2236436.71302791</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>2457438.95042343</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2330799.09912343</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3219155.169672989</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3353811.550772989</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3353811.550772989</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3420496.071672989</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3420496.071672989</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3997242.442645069</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>3997242.442645069</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>3983585.528245069</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4007000.022745069</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>3514769.012339059</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>3509873.421239059</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3509873.421239059</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3748674.154239059</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>3858978.798857159</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3807763.40865716</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3807763.40865716</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>4032862.00850956</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>4046868.06600956</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>5607531.94041108</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>5610163.72111108</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>5561834.887911079</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>5561834.887911079</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>5192038.84991108</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>5192038.84991108</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>5201999.66721108</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>5242219.66721108</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>5242219.66721108</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>5227009.23247299</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>5227020.23247299</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>5227020.23247299</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>5226407.20107299</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>5354229.26907299</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>5331441.00387299</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>6772671.54817774</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>8392675.40197774</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>7340342.80187774</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>6852912.343277739</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>6889514.47447774</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>6893006.78927774</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>6853467.86717774</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>6853467.86717774</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>6923195.575177739</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>6923195.575177739</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>7321885.80414792</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>7321885.80414792</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>7394672.54404792</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>7374693.27214792</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>7353848.33012219</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>7355387.91182219</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>8168739.310627439</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>8485604.92105113</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>8691649.89681242</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>8509959.521712421</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>8621573.684455071</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>8520444.29235507</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>7978438.49715973</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>7978438.49715973</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>7978438.49715973</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>7805828.01433076</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>7812753.66020179</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>7812753.66020179</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>7812753.66020179</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>7814243.703701789</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>7800023.60470179</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>7800023.60470179</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>8009516.840720619</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>7982439.773620619</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>7982439.773620619</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>7982439.773620619</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>7917987.126464601</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-14 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 XRP ohlcv.xlsx
@@ -4916,7 +4916,7 @@
         <v>154200.55941237</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>154200.55941237</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>154200.55941237</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>154200.55941237</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>155246.47091237</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>2722.957612369966</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>2499.957612369966</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>146777.41941237</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>146777.41941237</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>103558.12781237</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>103558.12781237</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>82043.33801236996</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>96110.04021236996</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>96106.96151236996</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>113374.45811237</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>113374.45811237</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>246592.84921237</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>242729.66781237</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>242729.66781237</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>242729.66781237</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>242729.66781237</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>242729.66781237</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>242729.66781237</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>405972.33141237</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>403454.59501237</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>403454.59501237</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>403454.59501237</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>403454.59501237</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>404275.8016123699</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>396836.18161237</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>401358.9779123699</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>329799.20251237</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>330065.12041237</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>330065.12041237</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>327185.7891123699</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>469180.4876123699</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>469280.4876123699</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>831374.42081237</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>356463.0673093298</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>376072.2354093298</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>398500.0749093298</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>355210.7030828797</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>342455.9235828797</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>351421.3125828797</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>270717.4662828797</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>208975.6232040897</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>200843.0644040897</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>202004.1492525697</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>195089.2781525697</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>218278.2906525697</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1136022.95465197</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>1149844.95375197</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1148854.23255197</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1148854.23255197</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1490583.78545197</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1940252.90988611</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1940252.90988611</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>2525363.17708611</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>2236436.71302791</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>2236436.71302791</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>2457438.95042343</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2330799.09912343</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3063962.360123429</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3161655.729223429</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3540449.199723429</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3219155.169672989</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3353811.550772989</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3353811.550772989</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3327907.101272989</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2806091.602172989</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3314096.958972989</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3420496.071672989</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3420496.071672989</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3997242.442645069</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>3997242.442645069</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>3983585.528245069</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4007000.022745069</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>3514769.012339059</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>3509873.421239059</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3509873.421239059</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3757822.484039059</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3748674.154239059</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>3858978.798857159</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3807763.40865716</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3807763.40865716</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3808320.97385716</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>3799641.93575716</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3558511.47043336</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>4032862.00850956</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>4046868.06600956</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>4042910.06600956</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>5607531.94041108</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>5607341.07371108</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>5610163.72111108</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>5561834.887911079</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>5561834.887911079</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>5192038.84991108</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>5192038.84991108</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>5202056.57701108</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>5201999.66721108</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>5242219.66721108</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>5242219.66721108</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5242075.37841108</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>5227009.23247299</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>5227020.23247299</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>5227020.23247299</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>5226407.20107299</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>5226437.20107299</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>5354229.26907299</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>5331441.00387299</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>6772671.54817774</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>8392675.40197774</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>7340342.80187774</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>6852912.343277739</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>7052324.04537774</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>6889514.47447774</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>6893006.78927774</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>6853467.86717774</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>6853467.86717774</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>6923195.575177739</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>6923195.575177739</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>7290471.88037774</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>7184876.40604792</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>7321885.80414792</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>7321885.80414792</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>7394672.54404792</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>7374693.27214792</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>7353848.33012219</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>7355387.91182219</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>7988965.512827438</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>8496978.200285409</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>8093879.213485409</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>8170420.106327439</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>8168739.310627439</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>8485604.92105113</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>8691649.89681242</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>8509959.521712421</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>8621573.684455071</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>8520444.29235507</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>8137760.14165507</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>7661289.06375507</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>7656018.98045507</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>7907756.369059729</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>7978438.49715973</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>7978438.49715973</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>7978438.49715973</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>7805828.01433076</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>7812753.66020179</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>7812753.66020179</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>7812753.66020179</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>7814243.703701789</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>7810463.37140179</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>7800023.60470179</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>7800023.60470179</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>7802638.06890179</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>7657575.88150179</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>7709480.51430179</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>7498219.67830179</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>7571269.99840179</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>7396850.59270179</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>7833632.10419454</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>7824056.48689454</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>7875895.202394539</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>7782595.853194539</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>7788454.89622062</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>7775955.196920619</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>8009516.840720619</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>8009516.840720619</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>7982439.773620619</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>7982439.773620619</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>7982439.773620619</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>7871565.392120619</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>7867748.079220619</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>7888521.954620619</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>7884082.23792062</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>7884082.23792062</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>7917467.70602062</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>7917467.70602062</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>7638185.075120619</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>6787746.35171327</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>6787746.35171327</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>6755621.418755139</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>6756508.56985514</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>6752144.161555139</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>6752144.161555139</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>6758341.746599319</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>6758341.746599319</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>6694776.626499319</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>6723343.486899319</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>6707498.410062119</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>6707498.410062119</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>6703984.99986212</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>6712002.77346212</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>6635636.309262119</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>6787492.176462119</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>6819628.11223189</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>6819249.375031889</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>6793505.63803189</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>6793391.30513189</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>6898180.575131891</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>6882370.044231892</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>6882370.044231892</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>6901836.134948161</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>6931536.373922572</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>6927926.525522572</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>6927377.081971401</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>6927404.445271402</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>6926540.432171402</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>6927202.786771402</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>6927202.786771402</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>6927202.786771402</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>6582985.262871401</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>6571565.371271402</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>6572862.371271402</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>7854286.716525041</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>7908126.834325041</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>8074636.580464601</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>8074636.580464601</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>8074636.580464601</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>8074636.580464601</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>8085725.835864601</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>7917987.126464601</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>8038830.4534646</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>8038830.4534646</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>8035597.2858646</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>8035597.2858646</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>8035157.6338646</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>8069409.6046646</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>7671464.560564601</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
